--- a/HicomIOS/Master/Template/AnnualService.xlsx
+++ b/HicomIOS/Master/Template/AnnualService.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>#</t>
   </si>
@@ -390,6 +390,42 @@
     <t>3</t>
   </si>
   <si>
+    <t>02/02/2020</t>
+  </si>
+  <si>
+    <t>02/03/2020</t>
+  </si>
+  <si>
+    <t>02/04/2020</t>
+  </si>
+  <si>
+    <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>07/02/2020</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>02/07/2020</t>
+  </si>
+  <si>
+    <t>02/08/2020</t>
+  </si>
+  <si>
+    <t>02/09/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
     <t>04/01/2020</t>
   </si>
   <si>
@@ -529,6 +565,42 @@
   </si>
   <si>
     <t>04/04/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ด021  ห้างหุ้นส่วนจำกัด เด่นสยามเซอร์วิส แอนด์ ซัพพลาย (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>OSP-15S5ANA</t>
+  </si>
+  <si>
+    <t>HUI10955</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>10/08/2022</t>
+  </si>
+  <si>
+    <t>OSP-37S5ANA</t>
+  </si>
+  <si>
+    <t>HTA11139</t>
+  </si>
+  <si>
+    <t>D0124</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T229"/>
+  <dimension ref="A1:T257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2728,7 +2800,7 @@
         <v>57</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>57</v>
@@ -2763,7 +2835,7 @@
         <v>79</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>57</v>
@@ -2798,7 +2870,7 @@
         <v>80</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>57</v>
@@ -2833,7 +2905,7 @@
         <v>81</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>57</v>
@@ -2868,7 +2940,7 @@
         <v>82</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>57</v>
@@ -2903,7 +2975,7 @@
         <v>83</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>57</v>
@@ -2938,7 +3010,7 @@
         <v>84</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>57</v>
@@ -2973,7 +3045,7 @@
         <v>85</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>57</v>
@@ -4825,7 +4897,7 @@
         <v>120</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>16</v>
@@ -4860,7 +4932,7 @@
         <v>120</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>16</v>
@@ -4869,13 +4941,13 @@
         <v>50</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
@@ -4895,22 +4967,22 @@
         <v>120</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="K112" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
@@ -4918,34 +4990,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
@@ -4953,34 +5025,34 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
@@ -4988,34 +5060,34 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116">
@@ -5023,34 +5095,34 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
@@ -5058,34 +5130,34 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="G117" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
@@ -5093,34 +5165,34 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="G118" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
@@ -5128,34 +5200,34 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
@@ -5163,34 +5235,34 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
@@ -5198,34 +5270,34 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
@@ -5233,34 +5305,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
@@ -5268,34 +5340,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
@@ -5303,34 +5375,34 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
@@ -5338,34 +5410,34 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I125" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" s="6" t="s">
+      <c r="K125" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="L125" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
@@ -5373,34 +5445,34 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E126" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I126" s="6" t="s">
+      <c r="K126" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K126" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="L126" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
@@ -5408,34 +5480,34 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128">
@@ -5443,34 +5515,34 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129">
@@ -5478,34 +5550,34 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130">
@@ -5513,34 +5585,34 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
@@ -5548,34 +5620,34 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132">
@@ -5583,34 +5655,34 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133">
@@ -5618,19 +5690,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>17</v>
@@ -5639,13 +5711,13 @@
         <v>21</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134">
@@ -5653,19 +5725,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>17</v>
@@ -5674,13 +5746,13 @@
         <v>21</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135">
@@ -5688,16 +5760,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>26</v>
@@ -5709,13 +5781,13 @@
         <v>21</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136">
@@ -5723,16 +5795,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>27</v>
@@ -5744,13 +5816,13 @@
         <v>21</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
@@ -5758,16 +5830,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>28</v>
@@ -5779,13 +5851,13 @@
         <v>21</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138">
@@ -5793,16 +5865,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>29</v>
@@ -5814,13 +5886,13 @@
         <v>21</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139">
@@ -5828,16 +5900,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>30</v>
@@ -5849,13 +5921,13 @@
         <v>21</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140">
@@ -5863,16 +5935,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>31</v>
@@ -5884,13 +5956,13 @@
         <v>21</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141">
@@ -5898,19 +5970,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>17</v>
@@ -5919,13 +5991,13 @@
         <v>21</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
@@ -5933,19 +6005,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>17</v>
@@ -5954,13 +6026,13 @@
         <v>21</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143">
@@ -5968,19 +6040,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>17</v>
@@ -5989,13 +6061,13 @@
         <v>21</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144">
@@ -6003,19 +6075,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>17</v>
@@ -6024,13 +6096,13 @@
         <v>21</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
@@ -6038,19 +6110,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>17</v>
@@ -6059,13 +6131,13 @@
         <v>21</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146">
@@ -6073,19 +6145,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>17</v>
@@ -6094,13 +6166,13 @@
         <v>21</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147">
@@ -6108,19 +6180,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>17</v>
@@ -6129,13 +6201,13 @@
         <v>21</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K147" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148">
@@ -6143,19 +6215,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>17</v>
@@ -6164,13 +6236,13 @@
         <v>21</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149">
@@ -6178,19 +6250,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G149" s="6" t="s">
         <v>17</v>
@@ -6199,13 +6271,13 @@
         <v>21</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150">
@@ -6213,19 +6285,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>17</v>
@@ -6234,13 +6306,13 @@
         <v>21</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151">
@@ -6248,19 +6320,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>17</v>
@@ -6269,13 +6341,13 @@
         <v>21</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K151" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152">
@@ -6283,19 +6355,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>17</v>
@@ -6304,13 +6376,13 @@
         <v>21</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
@@ -6318,19 +6390,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>17</v>
@@ -6339,13 +6411,13 @@
         <v>21</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
@@ -6353,19 +6425,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>17</v>
@@ -6374,13 +6446,13 @@
         <v>21</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K154" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
@@ -6388,19 +6460,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>17</v>
@@ -6409,13 +6481,13 @@
         <v>21</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156">
@@ -6423,34 +6495,34 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
@@ -6458,34 +6530,34 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158">
@@ -6493,34 +6565,34 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159">
@@ -6528,34 +6600,34 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
@@ -6563,34 +6635,34 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161">
@@ -6598,34 +6670,34 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
@@ -6633,34 +6705,34 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163">
@@ -6668,34 +6740,34 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164">
@@ -6703,34 +6775,34 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
@@ -6738,34 +6810,34 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
@@ -6773,34 +6845,34 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167">
@@ -6808,34 +6880,34 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168">
@@ -6843,34 +6915,34 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169">
@@ -6878,34 +6950,34 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
@@ -6913,34 +6985,34 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
@@ -6948,34 +7020,34 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
@@ -6983,34 +7055,34 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
@@ -7018,34 +7090,34 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
@@ -7053,34 +7125,34 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
@@ -7088,34 +7160,34 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
@@ -7123,34 +7195,34 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
@@ -7158,34 +7230,34 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
@@ -7193,34 +7265,34 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
@@ -7228,34 +7300,34 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
@@ -7263,34 +7335,34 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
@@ -7298,34 +7370,34 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182">
@@ -7333,34 +7405,34 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K182" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183">
@@ -7368,34 +7440,34 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K183" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184">
@@ -7403,34 +7475,34 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K184" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185">
@@ -7438,34 +7510,34 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K185" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186">
@@ -7473,34 +7545,34 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K186" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187">
@@ -7508,34 +7580,34 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K187" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188">
@@ -7543,34 +7615,34 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K188" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189">
@@ -7578,34 +7650,34 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K189" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190">
@@ -7613,34 +7685,34 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K190" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191">
@@ -7648,34 +7720,34 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K191" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192">
@@ -7683,34 +7755,34 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K192" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193">
@@ -7718,34 +7790,34 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194">
@@ -7753,28 +7825,28 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K194" s="6" t="s">
         <v>35</v>
@@ -7788,28 +7860,28 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K195" s="6" t="s">
         <v>35</v>
@@ -7823,28 +7895,28 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K196" s="6" t="s">
         <v>35</v>
@@ -7858,28 +7930,28 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K197" s="6" t="s">
         <v>35</v>
@@ -7893,28 +7965,28 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K198" s="6" t="s">
         <v>35</v>
@@ -7928,28 +8000,28 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K199" s="6" t="s">
         <v>35</v>
@@ -7963,28 +8035,28 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K200" s="6" t="s">
         <v>35</v>
@@ -7998,28 +8070,28 @@
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K201" s="6" t="s">
         <v>35</v>
@@ -8033,28 +8105,28 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K202" s="6" t="s">
         <v>35</v>
@@ -8068,28 +8140,28 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K203" s="6" t="s">
         <v>35</v>
@@ -8103,34 +8175,34 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205">
@@ -8138,34 +8210,34 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206">
@@ -8173,34 +8245,34 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
@@ -8208,34 +8280,34 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
@@ -8243,34 +8315,34 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209">
@@ -8278,34 +8350,34 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
@@ -8313,28 +8385,28 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K210" s="6" t="s">
         <v>35</v>
@@ -8348,28 +8420,28 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K211" s="6" t="s">
         <v>35</v>
@@ -8383,28 +8455,28 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K212" s="6" t="s">
         <v>35</v>
@@ -8418,28 +8490,28 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K213" s="6" t="s">
         <v>35</v>
@@ -8453,28 +8525,28 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K214" s="6" t="s">
         <v>35</v>
@@ -8488,28 +8560,28 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K215" s="6" t="s">
         <v>35</v>
@@ -8523,28 +8595,28 @@
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>35</v>
@@ -8558,28 +8630,28 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K217" s="6" t="s">
         <v>35</v>
@@ -8593,34 +8665,34 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219">
@@ -8628,34 +8700,34 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220">
@@ -8663,31 +8735,31 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L220" s="8" t="s">
         <v>49</v>
@@ -8698,31 +8770,31 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L221" s="8" t="s">
         <v>49</v>
@@ -8733,31 +8805,31 @@
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L222" s="8" t="s">
         <v>49</v>
@@ -8768,31 +8840,31 @@
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L223" s="8" t="s">
         <v>49</v>
@@ -8803,34 +8875,34 @@
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225">
@@ -8838,34 +8910,34 @@
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226">
@@ -8873,34 +8945,34 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227">
@@ -8908,28 +8980,28 @@
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="K227" s="6" t="s">
         <v>35</v>
@@ -8943,28 +9015,28 @@
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="K228" s="6" t="s">
         <v>35</v>
@@ -8978,33 +9050,1013 @@
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C229" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L229" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="6">
+        <v>229</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K230" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L230" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6">
+        <v>230</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L231" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K232" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L232" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K233" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L233" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K234" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L234" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K235" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L236" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K237" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K238" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L238" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L239" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E240" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F229" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G229" s="6" t="s">
+      <c r="F240" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K240" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L240" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K241" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L241" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K242" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L242" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H229" s="6" t="s">
+      <c r="H243" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I229" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K229" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L229" s="8" t="s">
+      <c r="I243" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K243" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L243" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I244" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L244" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K245" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L245" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K246" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L246" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K247" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L247" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K248" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L248" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K249" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K250" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L250" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K251" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L251" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K252" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L252" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K253" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L253" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L254" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K255" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L255" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K256" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L256" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K257" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L257" s="8" t="s">
         <v>35</v>
       </c>
     </row>

--- a/HicomIOS/Master/Template/AnnualService.xlsx
+++ b/HicomIOS/Master/Template/AnnualService.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>D0124</t>
+  </si>
+  <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
+    <t>เปิดบิลและฝากสัญญาไปเซ็นด้วยค่ะ</t>
+  </si>
+  <si>
+    <t>CHONBURI</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T257"/>
+  <dimension ref="A1:T263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10060,6 +10069,216 @@
         <v>35</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H258" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K258" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L258" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K259" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L259" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K260" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L260" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K261" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L261" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K262" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L262" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K263" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L263" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
